--- a/biology/Zoologie/Conus_fulmen/Conus_fulmen.xlsx
+++ b/biology/Zoologie/Conus_fulmen/Conus_fulmen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus fulmen est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille d'une coquille adulte varie entre 45 mm et 80 mm.
-La coquille est quelque peu ovale allongée, lisse et légèrement striée vers la base. La couleur de la coquille est rose-pourpre pâle, blanc autour du milieu ; marqué longitudinalement de deux ou trois stries très proéminentes, larges et ondulées, de couleur brun-violet. La spire est convexe, panachée avec du brun pourpre. L'apex est teinté de rose[1]. 
+La coquille est quelque peu ovale allongée, lisse et légèrement striée vers la base. La couleur de la coquille est rose-pourpre pâle, blanc autour du milieu ; marqué longitudinalement de deux ou trois stries très proéminentes, larges et ondulées, de couleur brun-violet. La spire est convexe, panachée avec du brun pourpre. L'apex est teinté de rose. 
 </t>
         </is>
       </c>
@@ -544,11 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large du Vietnam et au sud du Japon jusqu'aux Ryukyus.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente du Japon à Taiwan. Elle a également été enregistrée à Palawan aux Philippines, où cette sous-espèce est commune. Il n'y a pas de menaces connues pour cette espèce. Elle n'est pas en danger immédiat, mais elle bénéficierait de recherches supplémentaires. Cette espèce est classée dans la catégorie " préoccupation mineure "[2].
 </t>
         </is>
       </c>
@@ -574,23 +588,134 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente du Japon à Taiwan. Elle a également été enregistrée à Palawan aux Philippines, où cette sous-espèce est commune. Il n'y a pas de menaces connues pour cette espèce. Elle n'est pas en danger immédiat, mais elle bénéficierait de recherches supplémentaires. Cette espèce est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_fulmen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_fulmen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus fulmen a été décrite pour la première fois en 1843 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans la publication intitulée « Conchologia Iconica, or, illustrations of the shells of molluscous animals »[3],[4].
-Synonymes
-Chelyconus fulmen (Reeve, 1843) · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus fulmen a été décrite pour la première fois en 1843 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans la publication intitulée « Conchologia Iconica, or, illustrations of the shells of molluscous animals »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_fulmen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_fulmen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chelyconus fulmen (Reeve, 1843) · non accepté
 Chelyconus fulmen kirai Kuroda, 1956 · non accepté
 Conus (Chelyconus) wistaria Shikama, 1970 · non accepté
 Conus (Pionoconus) fulmen Reeve, 1843 · appellation alternative
 Conus modestus G. B. Sowerby I, 1833 · non accepté
 Conus wistaria Shikama, 1970 · non accepté
-Pionoconus fulmen (Reeve, 1843) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus fulmen dans les principales bases sont les suivants :
+Pionoconus fulmen (Reeve, 1843) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_fulmen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_fulmen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus fulmen dans les principales bases sont les suivants :
 CoL : 5ZXQY - GBIF : 5795844 - iNaturalist : 431980 - IRMNG : 10886531 - TAXREF : 155502 - UICN : 192835 - WoRMS : 428129 - ZOBODAT : 95140 
 </t>
         </is>
